--- a/MedicalLink/Templates/BC_112_ChiTienGiuongYCChoCacKhoaCK.xlsx
+++ b/MedicalLink/Templates/BC_112_ChiTienGiuongYCChoCacKhoaCK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -302,7 +302,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -333,49 +333,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,8 +387,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -708,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A6" sqref="A6:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,266 +723,266 @@
     <col min="2" max="2" width="35.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="26" t="e">
+      <c r="C7" s="22" t="e">
         <f>VALUE(G7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="35">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E7" s="35" t="e">
+      <c r="E7" s="12" t="e">
         <f>$C$7*D7</f>
         <v>#VALUE!</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="19">
+      <c r="C8" s="23"/>
+      <c r="D8" s="35">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E8" s="35" t="e">
+      <c r="E8" s="12" t="e">
         <f t="shared" ref="E8:E16" si="0">$C$7*D8</f>
         <v>#VALUE!</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="19">
+      <c r="C9" s="23"/>
+      <c r="D9" s="35">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E9" s="35" t="e">
+      <c r="E9" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="19">
+      <c r="C10" s="23"/>
+      <c r="D10" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E10" s="35" t="e">
+      <c r="E10" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="19">
+      <c r="C11" s="23"/>
+      <c r="D11" s="35">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E11" s="35" t="e">
+      <c r="E11" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="19">
+      <c r="C12" s="23"/>
+      <c r="D12" s="35">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E12" s="35" t="e">
+      <c r="E12" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="19">
+      <c r="C13" s="23"/>
+      <c r="D13" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E13" s="35" t="e">
+      <c r="E13" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="19">
+      <c r="C14" s="23"/>
+      <c r="D14" s="35">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="35" t="e">
+      <c r="E14" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>9</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="19">
+      <c r="C15" s="23"/>
+      <c r="D15" s="35">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="35" t="e">
+      <c r="E15" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <v>10</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="19">
+      <c r="C16" s="24"/>
+      <c r="D16" s="35">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="35" t="e">
+      <c r="E16" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20">
+      <c r="B17" s="21"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="36">
         <f>SUM(D8:D16)</f>
         <v>3.9E-2</v>
       </c>
@@ -989,23 +992,28 @@
       </c>
       <c r="F17" s="11"/>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+    </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="8" t="str">
         <f>"Bằng chữ: "&amp;G19</f>
         <v>Bằng chữ: &amp;=[DATA].TIENTHUONG_STRING</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="23" t="s">
+      <c r="F19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="23"/>
       <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+    </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1018,25 +1026,36 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
       <c r="C22" s="6"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
       <c r="C23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+    </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E19:F19"/>
+  <mergeCells count="9">
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C7:C16"/>
     <mergeCell ref="D1:E1"/>
